--- a/sample files/class values.xlsx
+++ b/sample files/class values.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomzhang/Projects/Class Organizer/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomzhang/Projects/Schedule Organizer/sample files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299CDF47-040F-7341-A7FA-A6EB47E737A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C0E687-3B8A-1F4A-AFC0-6B7793FB51B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="19420" windowHeight="10420" xr2:uid="{7D2ACEFD-0EF8-4B72-A5E3-682CADA723D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>PSY30</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Semester</t>
+  </si>
+  <si>
+    <t>S2</t>
   </si>
 </sst>
 </file>
@@ -496,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E132AD78-ADF5-4E42-992F-737811758C3B}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -537,8 +540,8 @@
         <v>0.5</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2">
-        <v>2</v>
+      <c r="F2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -553,8 +556,8 @@
         <v>0.5</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3">
-        <v>2</v>
+      <c r="F3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
